--- a/public/report/PAYROLL REPORT.xlsx
+++ b/public/report/PAYROLL REPORT.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
-  <si>
-    <t xml:space="preserve">Lay Bare Waxing Philippines Inc. </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+  <si>
+    <t>Lay Bare Franchising Corporation</t>
   </si>
   <si>
     <t xml:space="preserve">PAYROLL SHEET </t>
@@ -26,7 +26,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>April 16-30, 2018</t>
+    <t>May 16-31, 2018</t>
   </si>
   <si>
     <t>TARDINESS</t>
@@ -275,103 +275,232 @@
     <t xml:space="preserve"> Overage</t>
   </si>
   <si>
-    <t>Atienza, Michelle</t>
-  </si>
-  <si>
-    <t>0611573814176</t>
-  </si>
-  <si>
-    <t>291-921-056-000</t>
-  </si>
-  <si>
-    <t>Cabidog, Eufrocina</t>
-  </si>
-  <si>
-    <t>0611573814310</t>
-  </si>
-  <si>
-    <t>211-472-788-000</t>
-  </si>
-  <si>
-    <t>Coronado, Marian Angel</t>
-  </si>
-  <si>
-    <t>0000015909483</t>
-  </si>
-  <si>
-    <t>310-889-126-000</t>
-  </si>
-  <si>
-    <t>Daya, Ma.Charmina</t>
-  </si>
-  <si>
-    <t>0000016168902</t>
-  </si>
-  <si>
-    <t>260-893-223-000</t>
-  </si>
-  <si>
-    <t>Duque, Abigail</t>
-  </si>
-  <si>
-    <t>0611573814377</t>
-  </si>
-  <si>
-    <t>247-867-571</t>
-  </si>
-  <si>
-    <t>Geamala, Jenelyn</t>
-  </si>
-  <si>
-    <t>0611573814331</t>
-  </si>
-  <si>
-    <t>277-571-216-000</t>
-  </si>
-  <si>
-    <t>Lansang, Ma. Bernadette</t>
-  </si>
-  <si>
-    <t>0611573814107</t>
-  </si>
-  <si>
-    <t>231-957-237-000</t>
-  </si>
-  <si>
-    <t>Malit, Anna Janice</t>
-  </si>
-  <si>
-    <t>0611573814306</t>
-  </si>
-  <si>
-    <t>256-507-964-000</t>
-  </si>
-  <si>
-    <t>Orosco, Shirley Ann</t>
-  </si>
-  <si>
-    <t>0611573814204</t>
-  </si>
-  <si>
-    <t>250-582-437-000</t>
-  </si>
-  <si>
-    <t>Palattao, Czarina</t>
-  </si>
-  <si>
-    <t>0611573814169</t>
-  </si>
-  <si>
-    <t>401-084-967-000</t>
-  </si>
-  <si>
-    <t>Saylon, Ronna Francesca</t>
-  </si>
-  <si>
-    <t>0611573814054</t>
-  </si>
-  <si>
-    <t>312-698-569-000</t>
+    <t>Alejandro, Dale</t>
+  </si>
+  <si>
+    <t>0611573814089</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 321-564-418-000 </t>
+  </si>
+  <si>
+    <t>Angeles, Joanne</t>
+  </si>
+  <si>
+    <t>0611573814182</t>
+  </si>
+  <si>
+    <t>233-295-724-000</t>
+  </si>
+  <si>
+    <t>Brusola, Donato</t>
+  </si>
+  <si>
+    <t>0611573814392</t>
+  </si>
+  <si>
+    <t>241-440-802-000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonell, Joannafe </t>
+  </si>
+  <si>
+    <t>0000017466889</t>
+  </si>
+  <si>
+    <t>271-790-175-000</t>
+  </si>
+  <si>
+    <t>Chavez, Zobelita</t>
+  </si>
+  <si>
+    <t>0000016168753</t>
+  </si>
+  <si>
+    <t>240-238-768-000</t>
+  </si>
+  <si>
+    <t>Claros, Mark Joseph</t>
+  </si>
+  <si>
+    <t>0611573814105</t>
+  </si>
+  <si>
+    <t>490-689-394-000</t>
+  </si>
+  <si>
+    <t>Decena, Nemi Aechyllus</t>
+  </si>
+  <si>
+    <t>0611573814019</t>
+  </si>
+  <si>
+    <t>253-714-006-000</t>
+  </si>
+  <si>
+    <t>Fajardo, Sherwin</t>
+  </si>
+  <si>
+    <t>0611573814188</t>
+  </si>
+  <si>
+    <t>297-257-512-000</t>
+  </si>
+  <si>
+    <t>Garcia, Aireen</t>
+  </si>
+  <si>
+    <t>0611573814112</t>
+  </si>
+  <si>
+    <t>720-536-170-000</t>
+  </si>
+  <si>
+    <t>Garcia, Diane</t>
+  </si>
+  <si>
+    <t>0611573814144</t>
+  </si>
+  <si>
+    <t>438-231-775-000</t>
+  </si>
+  <si>
+    <t>Gutierrez, Mary Ann</t>
+  </si>
+  <si>
+    <t>0611573814320</t>
+  </si>
+  <si>
+    <t>202-944-429-000</t>
+  </si>
+  <si>
+    <t>Ilagan, Mariah Kim</t>
+  </si>
+  <si>
+    <t>0611573814018</t>
+  </si>
+  <si>
+    <t>442-129-674-000</t>
+  </si>
+  <si>
+    <t>Ishihara, Julie Anne</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>445-564-352-000</t>
+  </si>
+  <si>
+    <t>Nomorosa, Rodora Marie</t>
+  </si>
+  <si>
+    <t>436-223-149-000</t>
+  </si>
+  <si>
+    <t>Panagsagan, Lyrah</t>
+  </si>
+  <si>
+    <t>0611573814305</t>
+  </si>
+  <si>
+    <t>301-351-176-000</t>
+  </si>
+  <si>
+    <t>Pasagui, Romeo</t>
+  </si>
+  <si>
+    <t>0611573814173</t>
+  </si>
+  <si>
+    <t>219-010-862-000</t>
+  </si>
+  <si>
+    <t>Pe Benito, Annaliza</t>
+  </si>
+  <si>
+    <t>0611573814172</t>
+  </si>
+  <si>
+    <t>146-755-481-000</t>
+  </si>
+  <si>
+    <t>Publico, Katherine Kay</t>
+  </si>
+  <si>
+    <t>0611573814064</t>
+  </si>
+  <si>
+    <t>294-129-027-000</t>
+  </si>
+  <si>
+    <t>Quiroquiro, Andecrita</t>
+  </si>
+  <si>
+    <t>0611573814303</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Raymundo, Rainier</t>
+  </si>
+  <si>
+    <t>0000017467104</t>
+  </si>
+  <si>
+    <t>296-016-236-000</t>
+  </si>
+  <si>
+    <t>Realica, Angela Mae</t>
+  </si>
+  <si>
+    <t>0000016067599</t>
+  </si>
+  <si>
+    <t>313-533-287-000</t>
+  </si>
+  <si>
+    <t>Rebato, Judy</t>
+  </si>
+  <si>
+    <t>0000017467171</t>
+  </si>
+  <si>
+    <t>294-916-396-000</t>
+  </si>
+  <si>
+    <t>Sardan, Albert</t>
+  </si>
+  <si>
+    <t>331-205-226-000</t>
+  </si>
+  <si>
+    <t>Savilla, Liezl</t>
+  </si>
+  <si>
+    <t>0611573814248</t>
+  </si>
+  <si>
+    <t>271-288-174-000</t>
+  </si>
+  <si>
+    <t>Sobrevega, Ava Katrina</t>
+  </si>
+  <si>
+    <t>0611573814417</t>
+  </si>
+  <si>
+    <t>460-564-304-000</t>
+  </si>
+  <si>
+    <t>Tee, Danalice</t>
+  </si>
+  <si>
+    <t>0000017467239</t>
+  </si>
+  <si>
+    <t>708-880-906-000</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1145,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BO18"/>
+  <dimension ref="A1:BO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="AU5" sqref="AU5"/>
@@ -1739,7 +1868,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="7">
-        <v>13500</v>
+        <v>19137.5</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>D7/2</f>
@@ -1780,14 +1909,14 @@
         <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>13.55</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7" t="str">
         <f>P7*(1.25)*(H7/8)</f>
         <v>0</v>
       </c>
       <c r="R7" s="7">
-        <v>7.966666666666667</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7" t="str">
         <f>R7*(1.69)*(H7/8)</f>
@@ -1885,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="7">
-        <v>0</v>
+        <v>568.75</v>
       </c>
       <c r="AU7" s="7">
         <v>0</v>
@@ -1895,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="AW7" s="7">
-        <v>236.1</v>
+        <v>163.5</v>
       </c>
       <c r="AX7" s="7">
         <v>0</v>
       </c>
       <c r="AY7" s="7">
-        <v>121.14070043103</v>
+        <v>131.57031249999</v>
       </c>
       <c r="AZ7" s="7">
         <v>0</v>
@@ -1910,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="7">
-        <v>192.26</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="7">
         <v>0</v>
@@ -1919,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="7">
-        <v>0</v>
+        <v>441.67</v>
       </c>
       <c r="BF7" s="7">
         <v>0</v>
@@ -1940,7 +2069,9 @@
         <f>AV7-SUM(AW7:BJ7)</f>
         <v>0</v>
       </c>
-      <c r="BL7"/>
+      <c r="BL7">
+        <v>9400.7596875</v>
+      </c>
       <c r="BM7" s="7" t="s">
         <v>88</v>
       </c>
@@ -2101,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="7">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="7">
         <v>0</v>
@@ -2120,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="AY8" s="7">
-        <v>135.91954022989</v>
+        <v>137.5</v>
       </c>
       <c r="AZ8" s="7">
         <v>0</v>
       </c>
       <c r="BA8" s="7">
-        <v>599.89</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="7">
-        <v>192.84</v>
+        <v>479.81</v>
       </c>
       <c r="BC8" s="7">
         <v>0</v>
@@ -2138,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="7">
         <v>0</v>
@@ -2159,7 +2290,9 @@
         <f>AV8-SUM(AW8:BJ8)</f>
         <v>0</v>
       </c>
-      <c r="BL8"/>
+      <c r="BL8">
+        <v>9164.690000000001</v>
+      </c>
       <c r="BM8" s="7" t="s">
         <v>91</v>
       </c>
@@ -2177,7 +2310,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>15000</v>
+        <v>15625.66</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>D9/2</f>
@@ -2211,14 +2344,14 @@
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="str">
         <f>H9*N9</f>
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>9.333333333333334</v>
+        <v>65.5</v>
       </c>
       <c r="Q9" s="7" t="str">
         <f>P9*(1.25)*(H9/8)</f>
@@ -2232,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="7">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="U9" s="7" t="str">
         <f>T9*(0.10)*(H9/8)</f>
@@ -2323,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="7">
-        <v>0</v>
+        <v>372.04</v>
       </c>
       <c r="AU9" s="7">
         <v>0</v>
@@ -2333,22 +2466,22 @@
         <v>0</v>
       </c>
       <c r="AW9" s="7">
-        <v>290.6</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="7">
         <v>0</v>
       </c>
       <c r="AY9" s="7">
-        <v>81.531968390804</v>
+        <v>209.20367744612</v>
       </c>
       <c r="AZ9" s="7">
-        <v>0</v>
+        <v>992.12984554526</v>
       </c>
       <c r="BA9" s="7">
         <v>0</v>
       </c>
       <c r="BB9" s="7">
-        <v>0</v>
+        <v>399.62</v>
       </c>
       <c r="BC9" s="7">
         <v>0</v>
@@ -2357,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="7">
-        <v>0</v>
+        <v>618.33</v>
       </c>
       <c r="BF9" s="7">
         <v>0</v>
@@ -2378,7 +2511,9 @@
         <f>AV9-SUM(AW9:BJ9)</f>
         <v>0</v>
       </c>
-      <c r="BL9"/>
+      <c r="BL9">
+        <v>13367.569382181</v>
+      </c>
       <c r="BM9" s="7" t="s">
         <v>94</v>
       </c>
@@ -2396,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="D10" s="7">
-        <v>18000</v>
+        <v>15131.79</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>D10/2</f>
@@ -2416,21 +2551,21 @@
         <v>0</v>
       </c>
       <c r="J10" s="7">
-        <v>0.6166666666666667</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7" t="str">
         <f>(H10/8)*J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>0.5166666666666667</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7" t="str">
         <f>(H10/8)*L10</f>
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="str">
         <f>H10*N10</f>
@@ -2542,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="AT10" s="7">
-        <v>0</v>
+        <v>148.35</v>
       </c>
       <c r="AU10" s="7">
         <v>0</v>
@@ -2552,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="AW10" s="7">
-        <v>254.3</v>
+        <v>272.5</v>
       </c>
       <c r="AX10" s="7">
         <v>0</v>
       </c>
       <c r="AY10" s="7">
-        <v>96.10775862069001</v>
+        <v>68.5223</v>
       </c>
       <c r="AZ10" s="7">
         <v>0</v>
       </c>
       <c r="BA10" s="7">
-        <v>0</v>
+        <v>299.94</v>
       </c>
       <c r="BB10" s="7">
-        <v>0</v>
+        <v>344.39</v>
       </c>
       <c r="BC10" s="7">
         <v>0</v>
@@ -2582,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="BG10" s="7">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="BH10" s="7">
-        <v>783.34</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="7">
         <v>0</v>
@@ -2597,7 +2732,9 @@
         <f>AV10-SUM(AW10:BJ10)</f>
         <v>0</v>
       </c>
-      <c r="BL10"/>
+      <c r="BL10">
+        <v>6403.8927</v>
+      </c>
       <c r="BM10" s="7" t="s">
         <v>97</v>
       </c>
@@ -2615,7 +2752,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="7">
-        <v>35164.19</v>
+        <v>19500</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>D11/2</f>
@@ -2642,14 +2779,14 @@
         <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="M11" s="7" t="str">
         <f>(H11/8)*L11</f>
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O11" s="7" t="str">
         <f>H11*N11</f>
@@ -2758,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="7">
-        <v>4395.52</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="7">
         <v>0</v>
@@ -2771,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="AW11" s="7">
-        <v>0</v>
+        <v>90.8</v>
       </c>
       <c r="AX11" s="7">
         <v>0</v>
       </c>
       <c r="AY11" s="7">
-        <v>241.75380625</v>
+        <v>1.0569324712648</v>
       </c>
       <c r="AZ11" s="7">
-        <v>1418.3352984375</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="7">
         <v>0</v>
@@ -2816,7 +2953,9 @@
         <f>AV11-SUM(AW11:BJ11)</f>
         <v>0</v>
       </c>
-      <c r="BL11"/>
+      <c r="BL11">
+        <v>2476.3901939655</v>
+      </c>
       <c r="BM11" s="7" t="s">
         <v>100</v>
       </c>
@@ -2834,7 +2973,7 @@
         <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>22500</v>
+        <v>16320</v>
       </c>
       <c r="E12" s="7" t="str">
         <f>D12/2</f>
@@ -2854,14 +2993,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7" t="str">
         <f>(H12/8)*J12</f>
         <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7" t="str">
         <f>(H12/8)*L12</f>
@@ -2977,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="AS12" s="7">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AU12" s="7">
         <v>0</v>
@@ -2990,19 +3129,19 @@
         <v>0</v>
       </c>
       <c r="AW12" s="7">
-        <v>181.6</v>
+        <v>199.8</v>
       </c>
       <c r="AX12" s="7">
         <v>0</v>
       </c>
       <c r="AY12" s="7">
-        <v>154.24299568966</v>
+        <v>112.2</v>
       </c>
       <c r="AZ12" s="7">
-        <v>92.965883620689</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="7">
-        <v>299.94</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="7">
         <v>0</v>
@@ -3014,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="7">
         <v>0</v>
@@ -3035,7 +3174,9 @@
         <f>AV12-SUM(AW12:BJ12)</f>
         <v>0</v>
       </c>
-      <c r="BL12"/>
+      <c r="BL12">
+        <v>8008</v>
+      </c>
       <c r="BM12" s="7" t="s">
         <v>103</v>
       </c>
@@ -3053,7 +3194,7 @@
         <v>105</v>
       </c>
       <c r="D13" s="7">
-        <v>35000</v>
+        <v>26552.37</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>D13/2</f>
@@ -3080,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>0.06666666666666667</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="M13" s="7" t="str">
         <f>(H13/8)*L13</f>
@@ -3199,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="7">
-        <v>0</v>
+        <v>776.1900000000001</v>
       </c>
       <c r="AU13" s="7">
         <v>0</v>
@@ -3209,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="AW13" s="7">
-        <v>0</v>
+        <v>90.8</v>
       </c>
       <c r="AX13" s="7">
         <v>0</v>
       </c>
       <c r="AY13" s="7">
-        <v>240.44061302682</v>
+        <v>178.49093166667</v>
       </c>
       <c r="AZ13" s="7">
-        <v>1301.0373563218</v>
+        <v>614.211547</v>
       </c>
       <c r="BA13" s="7">
         <v>0</v>
       </c>
       <c r="BB13" s="7">
-        <v>165.07</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="7">
         <v>0</v>
@@ -3233,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="7">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="7">
         <v>0</v>
@@ -3242,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="BH13" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="7">
         <v>0</v>
@@ -3254,7 +3395,9 @@
         <f>AV13-SUM(AW13:BJ13)</f>
         <v>0</v>
       </c>
-      <c r="BL13"/>
+      <c r="BL13">
+        <v>12873.846188</v>
+      </c>
       <c r="BM13" s="7" t="s">
         <v>106</v>
       </c>
@@ -3272,7 +3415,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="7">
-        <v>23200</v>
+        <v>13500</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>D14/2</f>
@@ -3292,14 +3435,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="K14" s="7" t="str">
         <f>(H14/8)*J14</f>
         <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>0</v>
+        <v>1.116666666666667</v>
       </c>
       <c r="M14" s="7" t="str">
         <f>(H14/8)*L14</f>
@@ -3313,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="str">
         <f>P14*(1.25)*(H14/8)</f>
@@ -3327,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U14" s="7" t="str">
         <f>T14*(0.10)*(H14/8)</f>
@@ -3415,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="7">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="7">
         <v>0</v>
@@ -3428,22 +3571,22 @@
         <v>0</v>
       </c>
       <c r="AW14" s="7">
-        <v>163.5</v>
+        <v>345.1</v>
       </c>
       <c r="AX14" s="7">
         <v>0</v>
       </c>
       <c r="AY14" s="7">
-        <v>159.5</v>
+        <v>87.899245689655</v>
       </c>
       <c r="AZ14" s="7">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="7">
         <v>0</v>
       </c>
       <c r="BB14" s="7">
-        <v>246.34</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="7">
         <v>0</v>
@@ -3452,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="BE14" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="7">
         <v>0</v>
       </c>
       <c r="BG14" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="7">
         <v>0</v>
@@ -3473,7 +3616,9 @@
         <f>AV14-SUM(AW14:BJ14)</f>
         <v>0</v>
       </c>
-      <c r="BL14"/>
+      <c r="BL14">
+        <v>9275.6214439655</v>
+      </c>
       <c r="BM14" s="7" t="s">
         <v>109</v>
       </c>
@@ -3491,7 +3636,7 @@
         <v>111</v>
       </c>
       <c r="D15" s="7">
-        <v>20000</v>
+        <v>15300</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>D15/2</f>
@@ -3518,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="M15" s="7" t="str">
         <f>(H15/8)*L15</f>
@@ -3634,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="AS15" s="7">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AU15" s="7">
         <v>0</v>
@@ -3647,22 +3792,22 @@
         <v>0</v>
       </c>
       <c r="AW15" s="7">
-        <v>236.1</v>
+        <v>272.5</v>
       </c>
       <c r="AX15" s="7">
         <v>0</v>
       </c>
       <c r="AY15" s="7">
-        <v>132.65325670498</v>
+        <v>70.792349137931</v>
       </c>
       <c r="AZ15" s="7">
         <v>0</v>
       </c>
       <c r="BA15" s="7">
-        <v>669.1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="7">
-        <v>583.15</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="7">
         <v>0</v>
@@ -3692,7 +3837,9 @@
         <f>AV15-SUM(AW15:BJ15)</f>
         <v>0</v>
       </c>
-      <c r="BL15"/>
+      <c r="BL15">
+        <v>7455.2421336207</v>
+      </c>
       <c r="BM15" s="7" t="s">
         <v>112</v>
       </c>
@@ -3710,7 +3857,7 @@
         <v>114</v>
       </c>
       <c r="D16" s="7">
-        <v>16000</v>
+        <v>13621.76</v>
       </c>
       <c r="E16" s="7" t="str">
         <f>D16/2</f>
@@ -3723,14 +3870,14 @@
         <v>0</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f>SUM((D16/261)*12)</f>
+        <f>SUM((D16/313)*12)</f>
         <v>0</v>
       </c>
       <c r="I16" s="7">
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>0</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="K16" s="7" t="str">
         <f>(H16/8)*J16</f>
@@ -3744,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="str">
         <f>H16*N16</f>
@@ -3856,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="7">
-        <v>0</v>
+        <v>133.55</v>
       </c>
       <c r="AU16" s="7">
         <v>0</v>
@@ -3866,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="AW16" s="7">
-        <v>72.7</v>
+        <v>254.3</v>
       </c>
       <c r="AX16" s="7">
         <v>0</v>
       </c>
       <c r="AY16" s="7">
-        <v>29.080459770115</v>
+        <v>47.17007625</v>
       </c>
       <c r="AZ16" s="7">
         <v>0</v>
@@ -3911,7 +4058,9 @@
         <f>AV16-SUM(AW16:BJ16)</f>
         <v>0</v>
       </c>
-      <c r="BL16"/>
+      <c r="BL16">
+        <v>6585.29592375</v>
+      </c>
       <c r="BM16" s="7" t="s">
         <v>115</v>
       </c>
@@ -3929,7 +4078,7 @@
         <v>117</v>
       </c>
       <c r="D17" s="7">
-        <v>15000</v>
+        <v>33650.31</v>
       </c>
       <c r="E17" s="7" t="str">
         <f>D17/2</f>
@@ -3956,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M17" s="7" t="str">
         <f>(H17/8)*L17</f>
@@ -3970,14 +4119,14 @@
         <v>0</v>
       </c>
       <c r="P17" s="7">
-        <v>11.93333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7" t="str">
         <f>P17*(1.25)*(H17/8)</f>
         <v>0</v>
       </c>
       <c r="R17" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S17" s="7" t="str">
         <f>R17*(1.69)*(H17/8)</f>
@@ -3991,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W17" s="7" t="str">
         <f>V17*(1.69)*(H17/8)</f>
@@ -4072,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="AS17" s="7">
-        <v>0</v>
+        <v>6099.12</v>
       </c>
       <c r="AT17" s="7">
-        <v>0</v>
+        <v>1892.83</v>
       </c>
       <c r="AU17" s="7">
         <v>0</v>
@@ -4085,19 +4234,19 @@
         <v>0</v>
       </c>
       <c r="AW17" s="7">
-        <v>145.3</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="7">
         <v>0</v>
       </c>
       <c r="AY17" s="7">
-        <v>137.43322557472</v>
+        <v>215.39099288793</v>
       </c>
       <c r="AZ17" s="7">
-        <v>0</v>
+        <v>1418.8096224677</v>
       </c>
       <c r="BA17" s="7">
-        <v>299.94</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="7">
         <v>0</v>
@@ -4109,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="7">
-        <v>662.5</v>
+        <v>1766.67</v>
       </c>
       <c r="BF17" s="7">
         <v>0</v>
@@ -4121,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="7">
-        <v>2652.3</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="7">
         <v>0</v>
@@ -4130,7 +4279,9 @@
         <f>AV17-SUM(AW17:BJ17)</f>
         <v>0</v>
       </c>
-      <c r="BL17"/>
+      <c r="BL17">
+        <v>20255.878867403</v>
+      </c>
       <c r="BM17" s="7" t="s">
         <v>118</v>
       </c>
@@ -4138,8 +4289,3323 @@
       <c r="BO17"/>
     </row>
     <row r="18" spans="1:67">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30262.75</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f>D18/2</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f>SUM((D18/261)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f>(H18/8)*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="str">
+        <f>(H18/8)*L18</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="str">
+        <f>H18*N18</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7" t="str">
+        <f>P18*(1.25)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+      <c r="S18" s="7" t="str">
+        <f>R18*(1.69)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7" t="str">
+        <f>T18*(0.10)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7" t="str">
+        <f>V18*(1.69)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7" t="str">
+        <f>X18*(0)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7" t="str">
+        <f>Z18*(0)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7" t="str">
+        <f>AB18*(1)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7" t="str">
+        <f>AD18*(0)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7" t="str">
+        <f>AF18*(0)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="7" t="str">
+        <f>AH18*(0)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="7" t="str">
+        <f>AJ18*(0)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="7" t="str">
+        <f>AL18*(1)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="7" t="str">
+        <f>AN18*(0)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="7" t="str">
+        <f>AP18*(0)*(H18/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="7" t="str">
+        <f>(E18-O18+I18-SUM(O18,K18,M18)) + O18+Q18+S18+U18+W18+Y18+AA18+AC18+AE18+AG18+AI18+AK18+AM18+AO18+AQ18</f>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>3782.849999999999</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>1414.22</v>
+      </c>
+      <c r="AU18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="7" t="str">
+        <f>AR18+AS18+AT18+AU18</f>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="7">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="AX18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="7">
+        <v>208.05640625</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>917.40771875</v>
+      </c>
+      <c r="BA18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="7">
+        <v>1260.9</v>
+      </c>
+      <c r="BI18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="7">
+        <v>0</v>
+      </c>
       <c r="BK18" s="7" t="str">
-        <f>SUM(BK7:BK17)</f>
+        <f>AV18-SUM(AW18:BJ18)</f>
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>17869.480875</v>
+      </c>
+      <c r="BM18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN18"/>
+      <c r="BO18"/>
+    </row>
+    <row r="19" spans="1:67">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="7">
+        <v>35000</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f>D19/2</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f>SUM((D19/261)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f>(H19/8)*J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M19" s="7" t="str">
+        <f>(H19/8)*L19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="str">
+        <f>H19*N19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7" t="str">
+        <f>P19*(1.25)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7" t="str">
+        <f>R19*(1.69)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7" t="str">
+        <f>T19*(0.10)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7" t="str">
+        <f>V19*(1.69)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7" t="str">
+        <f>X19*(0)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7" t="str">
+        <f>Z19*(0)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7" t="str">
+        <f>AB19*(1)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7" t="str">
+        <f>AD19*(0)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="7" t="str">
+        <f>AF19*(0)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="7" t="str">
+        <f>AH19*(0)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="7" t="str">
+        <f>AJ19*(0)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="7" t="str">
+        <f>AL19*(1)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="7" t="str">
+        <f>AN19*(0)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="7" t="str">
+        <f>AP19*(0)*(H19/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="7" t="str">
+        <f>(E19-O19+I19-SUM(O19,K19,M19)) + O19+Q19+S19+U19+W19+Y19+AA19+AC19+AE19+AG19+AI19+AK19+AM19+AO19+AQ19</f>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="7">
+        <v>3218.4</v>
+      </c>
+      <c r="AU19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="7" t="str">
+        <f>AR19+AS19+AT19+AU19</f>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="7">
+        <v>36.3</v>
+      </c>
+      <c r="AX19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="7">
+        <v>239.33429118774</v>
+      </c>
+      <c r="AZ19" s="7">
+        <v>2170.4739942529</v>
+      </c>
+      <c r="BA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="7" t="str">
+        <f>AV19-SUM(AW19:BJ19)</f>
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>18178.421982759</v>
+      </c>
+      <c r="BM19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN19"/>
+      <c r="BO19"/>
+    </row>
+    <row r="20" spans="1:67">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="7">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f>D20/2</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f>SUM((D20/261)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f>(H20/8)*J20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>6.733333333333333</v>
+      </c>
+      <c r="M20" s="7" t="str">
+        <f>(H20/8)*L20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7" t="str">
+        <f>H20*N20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>23.75</v>
+      </c>
+      <c r="Q20" s="7" t="str">
+        <f>P20*(1.25)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7" t="str">
+        <f>R20*(1.69)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>11.75</v>
+      </c>
+      <c r="U20" s="7" t="str">
+        <f>T20*(0.10)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7" t="str">
+        <f>V20*(1.69)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7" t="str">
+        <f>X20*(0)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="7" t="str">
+        <f>Z20*(0)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="7" t="str">
+        <f>AB20*(1)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7" t="str">
+        <f>AD20*(0)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="7" t="str">
+        <f>AF20*(0)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="7" t="str">
+        <f>AH20*(0)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="7" t="str">
+        <f>AJ20*(0)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="7" t="str">
+        <f>AL20*(1)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="7" t="str">
+        <f>AN20*(0)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="7" t="str">
+        <f>AP20*(0)*(H20/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR20" s="7" t="str">
+        <f>(E20-O20+I20-SUM(O20,K20,M20)) + O20+Q20+S20+U20+W20+Y20+AA20+AC20+AE20+AG20+AI20+AK20+AM20+AO20+AQ20</f>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="7" t="str">
+        <f>AR20+AS20+AT20+AU20</f>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="7">
+        <v>290.6</v>
+      </c>
+      <c r="AX20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="7">
+        <v>94.59545617816001</v>
+      </c>
+      <c r="AZ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="7" t="str">
+        <f>AV20-SUM(AW20:BJ20)</f>
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>8505.249946120701</v>
+      </c>
+      <c r="BM20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN20"/>
+      <c r="BO20"/>
+    </row>
+    <row r="21" spans="1:67">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="7">
+        <v>17980.14</v>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f>D21/2</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f>SUM((D21/313)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f>(H21/8)*J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="str">
+        <f>(H21/8)*L21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="str">
+        <f>H21*N21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7" t="str">
+        <f>P21*(1.25)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7" t="str">
+        <f>R21*(1.69)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7" t="str">
+        <f>T21*(0.10)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7" t="str">
+        <f>V21*(1.69)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="7" t="str">
+        <f>X21*(0)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="7" t="str">
+        <f>Z21*(0)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="7" t="str">
+        <f>AB21*(1)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="7" t="str">
+        <f>AD21*(0)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="7" t="str">
+        <f>AF21*(0)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="7" t="str">
+        <f>AH21*(0)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="7" t="str">
+        <f>AJ21*(0)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="7" t="str">
+        <f>AL21*(1)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="7" t="str">
+        <f>AN21*(0)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="7" t="str">
+        <f>AP21*(0)*(H21/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="7" t="str">
+        <f>(E21-O21+I21-SUM(O21,K21,M21)) + O21+Q21+S21+U21+W21+Y21+AA21+AC21+AE21+AG21+AI21+AK21+AM21+AO21+AQ21</f>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="7" t="str">
+        <f>AR21+AS21+AT21+AU21</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="7">
+        <v>272.5</v>
+      </c>
+      <c r="AX21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="7">
+        <v>103.70326439896</v>
+      </c>
+      <c r="AZ21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="7">
+        <v>299.94</v>
+      </c>
+      <c r="BB21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="7" t="str">
+        <f>AV21-SUM(AW21:BJ21)</f>
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>8305.3100550899</v>
+      </c>
+      <c r="BM21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN21"/>
+      <c r="BO21"/>
+    </row>
+    <row r="22" spans="1:67">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="7">
+        <v>13354.67</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f>D22/2</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f>SUM((D22/313)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f>(H22/8)*J22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7" t="str">
+        <f>(H22/8)*L22</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="str">
+        <f>H22*N22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="7" t="str">
+        <f>P22*(1.25)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="7" t="str">
+        <f>R22*(1.69)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>15</v>
+      </c>
+      <c r="U22" s="7" t="str">
+        <f>T22*(0.10)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0</v>
+      </c>
+      <c r="W22" s="7" t="str">
+        <f>V22*(1.69)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="7" t="str">
+        <f>X22*(0)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="7" t="str">
+        <f>Z22*(0)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7" t="str">
+        <f>AB22*(1)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="7" t="str">
+        <f>AD22*(0)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="7" t="str">
+        <f>AF22*(0)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="7" t="str">
+        <f>AH22*(0)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="7" t="str">
+        <f>AJ22*(0)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="7" t="str">
+        <f>AL22*(1)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="7" t="str">
+        <f>AN22*(0)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="7" t="str">
+        <f>AP22*(0)*(H22/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="7" t="str">
+        <f>(E22-O22+I22-SUM(O22,K22,M22)) + O22+Q22+S22+U22+W22+Y22+AA22+AC22+AE22+AG22+AI22+AK22+AM22+AO22+AQ22</f>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="7" t="str">
+        <f>AR22+AS22+AT22+AU22</f>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="7">
+        <v>181.6</v>
+      </c>
+      <c r="AX22" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="7">
+        <v>149.23337058207</v>
+      </c>
+      <c r="AZ22" s="7">
+        <v>21.10053435004</v>
+      </c>
+      <c r="BA22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="7">
+        <v>574.17</v>
+      </c>
+      <c r="BF22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="7" t="str">
+        <f>AV22-SUM(AW22:BJ22)</f>
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>9927.2321374002</v>
+      </c>
+      <c r="BM22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN22"/>
+      <c r="BO22"/>
+    </row>
+    <row r="23" spans="1:67">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="7">
+        <v>13354.67</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f>D23/2</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>SUM((D23/313)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f>(H23/8)*J23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="str">
+        <f>(H23/8)*L23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="str">
+        <f>H23*N23</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7" t="str">
+        <f>P23*(1.25)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7" t="str">
+        <f>R23*(1.69)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0</v>
+      </c>
+      <c r="U23" s="7" t="str">
+        <f>T23*(0.10)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0</v>
+      </c>
+      <c r="W23" s="7" t="str">
+        <f>V23*(1.69)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="7" t="str">
+        <f>X23*(0)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="7" t="str">
+        <f>Z23*(0)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="7" t="str">
+        <f>AB23*(1)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="7" t="str">
+        <f>AD23*(0)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="7" t="str">
+        <f>AF23*(0)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="7" t="str">
+        <f>AH23*(0)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="7" t="str">
+        <f>AJ23*(0)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="7" t="str">
+        <f>AL23*(1)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="7" t="str">
+        <f>AN23*(0)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="7" t="str">
+        <f>AP23*(0)*(H23/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR23" s="7" t="str">
+        <f>(E23-O23+I23-SUM(O23,K23,M23)) + O23+Q23+S23+U23+W23+Y23+AA23+AC23+AE23+AG23+AI23+AK23+AM23+AO23+AQ23</f>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="7" t="str">
+        <f>AR23+AS23+AT23+AU23</f>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="7">
+        <v>254.3</v>
+      </c>
+      <c r="AX23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="7">
+        <v>46.1267125</v>
+      </c>
+      <c r="AZ23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="7">
+        <v>574.17</v>
+      </c>
+      <c r="BF23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="7" t="str">
+        <f>AV23-SUM(AW23:BJ23)</f>
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>5802.7382875</v>
+      </c>
+      <c r="BM23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN23"/>
+      <c r="BO23"/>
+    </row>
+    <row r="24" spans="1:67">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f>D24/2</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f>SUM((D24/261)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f>(H24/8)*J24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="M24" s="7" t="str">
+        <f>(H24/8)*L24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f>H24*N24</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7" t="str">
+        <f>P24*(1.25)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="7" t="str">
+        <f>R24*(1.69)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="7">
+        <v>0</v>
+      </c>
+      <c r="U24" s="7" t="str">
+        <f>T24*(0.10)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="7">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7" t="str">
+        <f>V24*(1.69)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="7" t="str">
+        <f>X24*(0)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="7" t="str">
+        <f>Z24*(0)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="7" t="str">
+        <f>AB24*(1)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="7" t="str">
+        <f>AD24*(0)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="7" t="str">
+        <f>AF24*(0)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="7" t="str">
+        <f>AH24*(0)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="7" t="str">
+        <f>AJ24*(0)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="7" t="str">
+        <f>AL24*(1)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="7" t="str">
+        <f>AN24*(0)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="7" t="str">
+        <f>AP24*(0)*(H24/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR24" s="7" t="str">
+        <f>(E24-O24+I24-SUM(O24,K24,M24)) + O24+Q24+S24+U24+W24+Y24+AA24+AC24+AE24+AG24+AI24+AK24+AM24+AO24+AQ24</f>
+        <v>0</v>
+      </c>
+      <c r="AS24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="7" t="str">
+        <f>AR24+AS24+AT24+AU24</f>
+        <v>0</v>
+      </c>
+      <c r="AW24" s="7">
+        <v>236.1</v>
+      </c>
+      <c r="AX24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="7">
+        <v>122.32363505747</v>
+      </c>
+      <c r="AZ24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="7">
+        <v>692.1799999999999</v>
+      </c>
+      <c r="BB24" s="7">
+        <v>198.86</v>
+      </c>
+      <c r="BC24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="7">
+        <v>1060</v>
+      </c>
+      <c r="BF24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="7" t="str">
+        <f>AV24-SUM(AW24:BJ24)</f>
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>7086.8007327586</v>
+      </c>
+      <c r="BM24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN24"/>
+      <c r="BO24"/>
+    </row>
+    <row r="25" spans="1:67">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19355.37</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f>D25/2</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>SUM((D25/313)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K25" s="7" t="str">
+        <f>(H25/8)*J25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7" t="str">
+        <f>(H25/8)*L25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f>H25*N25</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7" t="str">
+        <f>P25*(1.25)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7" t="str">
+        <f>R25*(1.69)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
+      <c r="U25" s="7" t="str">
+        <f>T25*(0.10)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7" t="str">
+        <f>V25*(1.69)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="7" t="str">
+        <f>X25*(0)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7" t="str">
+        <f>Z25*(0)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="7" t="str">
+        <f>AB25*(1)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="7" t="str">
+        <f>AD25*(0)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="7" t="str">
+        <f>AF25*(0)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="7" t="str">
+        <f>AH25*(0)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="7" t="str">
+        <f>AJ25*(0)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="7" t="str">
+        <f>AL25*(1)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="7" t="str">
+        <f>AN25*(0)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="7" t="str">
+        <f>AP25*(0)*(H25/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="7" t="str">
+        <f>(E25-O25+I25-SUM(O25,K25,M25)) + O25+Q25+S25+U25+W25+Y25+AA25+AC25+AE25+AG25+AI25+AK25+AM25+AO25+AQ25</f>
+        <v>0</v>
+      </c>
+      <c r="AS25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="7" t="str">
+        <f>AR25+AS25+AT25+AU25</f>
+        <v>0</v>
+      </c>
+      <c r="AW25" s="7">
+        <v>236.1</v>
+      </c>
+      <c r="AX25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="7">
+        <v>128.40251164437</v>
+      </c>
+      <c r="AZ25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="7">
+        <v>311.48</v>
+      </c>
+      <c r="BB25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="7" t="str">
+        <f>AV25-SUM(AW25:BJ25)</f>
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>8993.972708004199</v>
+      </c>
+      <c r="BM25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BN25"/>
+      <c r="BO25"/>
+    </row>
+    <row r="26" spans="1:67">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="7">
+        <v>13354.67</v>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f>D26/2</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="str">
+        <f>SUM((D26/313)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7" t="str">
+        <f>(H26/8)*J26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7" t="str">
+        <f>(H26/8)*L26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6</v>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f>H26*N26</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7" t="str">
+        <f>P26*(1.25)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="7" t="str">
+        <f>R26*(1.69)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
+      <c r="U26" s="7" t="str">
+        <f>T26*(0.10)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7" t="str">
+        <f>V26*(1.69)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="7" t="str">
+        <f>X26*(0)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7" t="str">
+        <f>Z26*(0)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7" t="str">
+        <f>AB26*(1)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="7" t="str">
+        <f>AD26*(0)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="7" t="str">
+        <f>AF26*(0)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="7" t="str">
+        <f>AH26*(0)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="7" t="str">
+        <f>AJ26*(0)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="7" t="str">
+        <f>AL26*(1)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="7" t="str">
+        <f>AN26*(0)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="7" t="str">
+        <f>AP26*(0)*(H26/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="7" t="str">
+        <f>(E26-O26+I26-SUM(O26,K26,M26)) + O26+Q26+S26+U26+W26+Y26+AA26+AC26+AE26+AG26+AI26+AK26+AM26+AO26+AQ26</f>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="7" t="str">
+        <f>AR26+AS26+AT26+AU26</f>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="7">
+        <v>145.3</v>
+      </c>
+      <c r="AX26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="7">
+        <v>3.886701956869</v>
+      </c>
+      <c r="AZ26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="7">
+        <v>276.87</v>
+      </c>
+      <c r="BB26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="7" t="str">
+        <f>AV26-SUM(AW26:BJ26)</f>
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>3179.27753127</v>
+      </c>
+      <c r="BM26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN26"/>
+      <c r="BO26"/>
+    </row>
+    <row r="27" spans="1:67">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="7">
+        <v>13354.67</v>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f>D27/2</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f>SUM((D27/313)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1.016666666666667</v>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f>(H27/8)*J27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7" t="str">
+        <f>(H27/8)*L27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f>H27*N27</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7" t="str">
+        <f>P27*(1.25)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7" t="str">
+        <f>R27*(1.69)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
+      <c r="U27" s="7" t="str">
+        <f>T27*(0.10)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7" t="str">
+        <f>V27*(1.69)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="7" t="str">
+        <f>X27*(0)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7" t="str">
+        <f>Z27*(0)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="7" t="str">
+        <f>AB27*(1)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="7" t="str">
+        <f>AD27*(0)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="7" t="str">
+        <f>AF27*(0)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="7" t="str">
+        <f>AH27*(0)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="7" t="str">
+        <f>AJ27*(0)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="7" t="str">
+        <f>AL27*(1)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="7" t="str">
+        <f>AN27*(0)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="7" t="str">
+        <f>AP27*(0)*(H27/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR27" s="7" t="str">
+        <f>(E27-O27+I27-SUM(O27,K27,M27)) + O27+Q27+S27+U27+W27+Y27+AA27+AC27+AE27+AG27+AI27+AK27+AM27+AO27+AQ27</f>
+        <v>0</v>
+      </c>
+      <c r="AS27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="7" t="str">
+        <f>AR27+AS27+AT27+AU27</f>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="7">
+        <v>218</v>
+      </c>
+      <c r="AX27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="7">
+        <v>29.949375128794</v>
+      </c>
+      <c r="AZ27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="7" t="str">
+        <f>AV27-SUM(AW27:BJ27)</f>
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>5852.3188141683</v>
+      </c>
+      <c r="BM27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN27"/>
+      <c r="BO27"/>
+    </row>
+    <row r="28" spans="1:67">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="7">
+        <v>18000</v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f>D28/2</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="str">
+        <f>SUM((D28/261)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="K28" s="7" t="str">
+        <f>(H28/8)*J28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>8</v>
+      </c>
+      <c r="M28" s="7" t="str">
+        <f>(H28/8)*L28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f>H28*N28</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7" t="str">
+        <f>P28*(1.25)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7" t="str">
+        <f>R28*(1.69)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7" t="str">
+        <f>T28*(0.10)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7" t="str">
+        <f>V28*(1.69)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7" t="str">
+        <f>X28*(0)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7" t="str">
+        <f>Z28*(0)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7" t="str">
+        <f>AB28*(1)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="7" t="str">
+        <f>AD28*(0)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="7" t="str">
+        <f>AF28*(0)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="7" t="str">
+        <f>AH28*(0)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="7" t="str">
+        <f>AJ28*(0)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="7" t="str">
+        <f>AL28*(1)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="7" t="str">
+        <f>AN28*(0)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="7" t="str">
+        <f>AP28*(0)*(H28/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="7" t="str">
+        <f>(E28-O28+I28-SUM(O28,K28,M28)) + O28+Q28+S28+U28+W28+Y28+AA28+AC28+AE28+AG28+AI28+AK28+AM28+AO28+AQ28</f>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="7" t="str">
+        <f>AR28+AS28+AT28+AU28</f>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="7">
+        <v>272.5</v>
+      </c>
+      <c r="AX28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="7">
+        <v>88.18965517241401</v>
+      </c>
+      <c r="AZ28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="7">
+        <v>738.3200000000001</v>
+      </c>
+      <c r="BB28" s="7">
+        <v>388.44</v>
+      </c>
+      <c r="BC28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="7" t="str">
+        <f>AV28-SUM(AW28:BJ28)</f>
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>6302.2055172414</v>
+      </c>
+      <c r="BM28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN28"/>
+      <c r="BO28"/>
+    </row>
+    <row r="29" spans="1:67">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="7">
+        <v>13354.67</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f>D29/2</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f>SUM((D29/313)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1.583333333333333</v>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f>(H29/8)*J29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="M29" s="7" t="str">
+        <f>(H29/8)*L29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f>H29*N29</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="7" t="str">
+        <f>P29*(1.25)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7" t="str">
+        <f>R29*(1.69)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <v>8</v>
+      </c>
+      <c r="U29" s="7" t="str">
+        <f>T29*(0.10)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7" t="str">
+        <f>V29*(1.69)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="7" t="str">
+        <f>X29*(0)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7" t="str">
+        <f>Z29*(0)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="7" t="str">
+        <f>AB29*(1)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="7" t="str">
+        <f>AD29*(0)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="7" t="str">
+        <f>AF29*(0)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="7" t="str">
+        <f>AH29*(0)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="7" t="str">
+        <f>AJ29*(0)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="7" t="str">
+        <f>AL29*(1)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="7" t="str">
+        <f>AN29*(0)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="7" t="str">
+        <f>AP29*(0)*(H29/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR29" s="7" t="str">
+        <f>(E29-O29+I29-SUM(O29,K29,M29)) + O29+Q29+S29+U29+W29+Y29+AA29+AC29+AE29+AG29+AI29+AK29+AM29+AO29+AQ29</f>
+        <v>0</v>
+      </c>
+      <c r="AS29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="7" t="str">
+        <f>AR29+AS29+AT29+AU29</f>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="7">
+        <v>236.1</v>
+      </c>
+      <c r="AX29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="7">
+        <v>108.97266151972</v>
+      </c>
+      <c r="AZ29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="7" t="str">
+        <f>AV29-SUM(AW29:BJ29)</f>
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>8064.5294375218</v>
+      </c>
+      <c r="BM29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="BN29"/>
+      <c r="BO29"/>
+    </row>
+    <row r="30" spans="1:67">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="7">
+        <v>28797.88</v>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f>D30/2</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="str">
+        <f>SUM((D30/261)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="str">
+        <f>(H30/8)*J30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="M30" s="7" t="str">
+        <f>(H30/8)*L30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f>H30*N30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7" t="str">
+        <f>P30*(1.25)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7" t="str">
+        <f>R30*(1.69)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0</v>
+      </c>
+      <c r="U30" s="7" t="str">
+        <f>T30*(0.10)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+      <c r="W30" s="7" t="str">
+        <f>V30*(1.69)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7" t="str">
+        <f>X30*(0)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7" t="str">
+        <f>Z30*(0)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7" t="str">
+        <f>AB30*(1)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="7" t="str">
+        <f>AD30*(0)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="7" t="str">
+        <f>AF30*(0)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="7" t="str">
+        <f>AH30*(0)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="7" t="str">
+        <f>AJ30*(0)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="7" t="str">
+        <f>AL30*(1)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="7" t="str">
+        <f>AN30*(0)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="7" t="str">
+        <f>AP30*(0)*(H30/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR30" s="7" t="str">
+        <f>(E30-O30+I30-SUM(O30,K30,M30)) + O30+Q30+S30+U30+W30+Y30+AA30+AC30+AE30+AG30+AI30+AK30+AM30+AO30+AQ30</f>
+        <v>0</v>
+      </c>
+      <c r="AS30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="7">
+        <v>1188.91</v>
+      </c>
+      <c r="AU30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="7" t="str">
+        <f>AR30+AS30+AT30+AU30</f>
+        <v>0</v>
+      </c>
+      <c r="AW30" s="7">
+        <v>145.3</v>
+      </c>
+      <c r="AX30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="7">
+        <v>177.73174359196</v>
+      </c>
+      <c r="AZ30" s="7">
+        <v>674.96464898276</v>
+      </c>
+      <c r="BA30" s="7">
+        <v>715.25</v>
+      </c>
+      <c r="BB30" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="7">
+        <v>1104.17</v>
+      </c>
+      <c r="BF30" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="7" t="str">
+        <f>AV30-SUM(AW30:BJ30)</f>
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>11297.438595931</v>
+      </c>
+      <c r="BM30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN30"/>
+      <c r="BO30"/>
+    </row>
+    <row r="31" spans="1:67">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="7">
+        <v>17100.47</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f>D31/2</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f>SUM((D31/261)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7" t="str">
+        <f>(H31/8)*J31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7" t="str">
+        <f>(H31/8)*L31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f>H31*N31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7" t="str">
+        <f>P31*(1.25)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7" t="str">
+        <f>R31*(1.69)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7" t="str">
+        <f>T31*(0.10)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7" t="str">
+        <f>V31*(1.69)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7" t="str">
+        <f>X31*(0)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7" t="str">
+        <f>Z31*(0)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7" t="str">
+        <f>AB31*(1)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7" t="str">
+        <f>AD31*(0)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="7" t="str">
+        <f>AF31*(0)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="7" t="str">
+        <f>AH31*(0)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="7" t="str">
+        <f>AJ31*(0)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="7" t="str">
+        <f>AL31*(1)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="7" t="str">
+        <f>AN31*(0)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="7" t="str">
+        <f>AP31*(0)*(H31/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR31" s="7" t="str">
+        <f>(E31-O31+I31-SUM(O31,K31,M31)) + O31+Q31+S31+U31+W31+Y31+AA31+AC31+AE31+AG31+AI31+AK31+AM31+AO31+AQ31</f>
+        <v>0</v>
+      </c>
+      <c r="AS31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="7">
+        <v>407.16</v>
+      </c>
+      <c r="AU31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="7" t="str">
+        <f>AR31+AS31+AT31+AU31</f>
+        <v>0</v>
+      </c>
+      <c r="AW31" s="7">
+        <v>290.6</v>
+      </c>
+      <c r="AX31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="7">
+        <v>92.03308125</v>
+      </c>
+      <c r="AZ31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="7">
+        <v>357.63</v>
+      </c>
+      <c r="BB31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="7">
+        <v>441.67</v>
+      </c>
+      <c r="BF31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="7" t="str">
+        <f>AV31-SUM(AW31:BJ31)</f>
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>7775.46191875</v>
+      </c>
+      <c r="BM31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN31"/>
+      <c r="BO31"/>
+    </row>
+    <row r="32" spans="1:67">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="7">
+        <v>13500</v>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f>D32/2</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f>SUM((D32/313)*12)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7" t="str">
+        <f>(H32/8)*J32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7" t="str">
+        <f>(H32/8)*L32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2</v>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f>H32*N32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="Q32" s="7" t="str">
+        <f>P32*(1.25)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="7" t="str">
+        <f>R32*(1.69)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="U32" s="7" t="str">
+        <f>T32*(0.10)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+      <c r="W32" s="7" t="str">
+        <f>V32*(1.69)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="7" t="str">
+        <f>X32*(0)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7" t="str">
+        <f>Z32*(0)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7" t="str">
+        <f>AB32*(1)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7" t="str">
+        <f>AD32*(0)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="7" t="str">
+        <f>AF32*(0)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="7" t="str">
+        <f>AH32*(0)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="7" t="str">
+        <f>AJ32*(0)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="7" t="str">
+        <f>AL32*(1)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="7" t="str">
+        <f>AN32*(0)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="7" t="str">
+        <f>AP32*(0)*(H32/8)</f>
+        <v>0</v>
+      </c>
+      <c r="AR32" s="7" t="str">
+        <f>(E32-O32+I32-SUM(O32,K32,M32)) + O32+Q32+S32+U32+W32+Y32+AA32+AC32+AE32+AG32+AI32+AK32+AM32+AO32+AQ32</f>
+        <v>0</v>
+      </c>
+      <c r="AS32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="7" t="str">
+        <f>AR32+AS32+AT32+AU32</f>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="7">
+        <v>218</v>
+      </c>
+      <c r="AX32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="7">
+        <v>40.141049321086</v>
+      </c>
+      <c r="AZ32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="7" t="str">
+        <f>AV32-SUM(AW32:BJ32)</f>
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>5911.2079922125</v>
+      </c>
+      <c r="BM32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN32"/>
+      <c r="BO32"/>
+    </row>
+    <row r="33" spans="1:67">
+      <c r="BK33" s="7" t="str">
+        <f>SUM(BK7:BK32)</f>
         <v>0</v>
       </c>
     </row>
